--- a/data/trans_bre/P28A_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P28A_1_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -636,52 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>-3,62</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,58</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-8,8%</t>
+          <t>-8,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>28,99%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>2,52%</t>
         </is>
       </c>
     </row>
@@ -694,52 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,07; 7,17</t>
+          <t>-14,9; 7,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 13,5</t>
+          <t>-8,81; 12,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 20,71</t>
+          <t>-5,17; 16,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 14,75</t>
+          <t>-5,36; 13,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 15,35</t>
+          <t>-12,35; 12,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-32,54; 20,23</t>
+          <t>-30,84; 20,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,62; 56,73</t>
+          <t>-24,48; 55,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 76,51</t>
+          <t>-15,07; 64,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-24,62; 133,86</t>
+          <t>-24,84; 114,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-26,24; 64,36</t>
+          <t>-35,01; 58,98</t>
         </is>
       </c>
     </row>
@@ -756,52 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-4,21</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,3</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,58%</t>
+          <t>-7,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-3,99%</t>
+          <t>-7,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-0,95%</t>
+          <t>-6,77%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>26,64%</t>
+          <t>27,1%</t>
         </is>
       </c>
     </row>
@@ -814,52 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,94; 8,08</t>
+          <t>-14,93; 7,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 9,54</t>
+          <t>-14,94; 8,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 14,13</t>
+          <t>-9,41; 10,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,01; 10,56</t>
+          <t>-16,06; 9,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 19,1</t>
+          <t>-4,52; 18,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,95; 15,76</t>
+          <t>-23,71; 15,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-36,56; 37,21</t>
+          <t>-39,68; 36,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,96; 61,35</t>
+          <t>-28,96; 50,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-39,85; 53,46</t>
+          <t>-43,78; 49,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 94,31</t>
+          <t>-13,75; 96,93</t>
         </is>
       </c>
     </row>
@@ -876,52 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-9,19</t>
+          <t>-9,88</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,15</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-15,6%</t>
+          <t>-16,77%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,0%</t>
+          <t>-2,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,63%</t>
+          <t>-6,98%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-22,91%</t>
+          <t>-21,83%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>8,94%</t>
         </is>
       </c>
     </row>
@@ -934,52 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,06; -0,58</t>
+          <t>-18,79; -0,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,65; 8,1</t>
+          <t>-10,06; 7,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 8,0</t>
+          <t>-10,22; 5,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 1,38</t>
+          <t>-13,47; 1,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 12,61</t>
+          <t>-6,07; 10,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,03; -0,42</t>
+          <t>-29,17; -1,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-33,67; 32,69</t>
+          <t>-26,85; 31,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,03; 27,79</t>
+          <t>-27,41; 21,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-45,47; 6,74</t>
+          <t>-45,36; 6,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-15,73; 54,47</t>
+          <t>-19,42; 48,15</t>
         </is>
       </c>
     </row>
@@ -996,52 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,84</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,35</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>15,78%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 13,61</t>
+          <t>-1,45; 14,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 14,48</t>
+          <t>-4,48; 11,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 9,95</t>
+          <t>-5,8; 8,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 7,09</t>
+          <t>-5,03; 7,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 13,13</t>
+          <t>-4,61; 12,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 28,24</t>
+          <t>-2,65; 29,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 69,68</t>
+          <t>-14,72; 54,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,46; 39,04</t>
+          <t>-18,75; 34,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-22,28; 38,4</t>
+          <t>-20,41; 44,32</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 55,78</t>
+          <t>-15,93; 58,75</t>
         </is>
       </c>
     </row>
@@ -1116,52 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,94</t>
+          <t>9,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>63,0%</t>
+          <t>53,1%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,19%</t>
+          <t>-3,31%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>21,82%</t>
+          <t>24,96%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 16,16</t>
+          <t>-5,34; 14,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 13,53</t>
+          <t>-6,06; 11,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,08; 20,52</t>
+          <t>1,86; 15,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 7,2</t>
+          <t>-8,06; 5,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 12,17</t>
+          <t>-3,66; 12,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 31,28</t>
+          <t>-8,69; 30,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-16,21; 56,67</t>
+          <t>-19,19; 48,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,27; 134,54</t>
+          <t>8,77; 106,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-35,85; 46,59</t>
+          <t>-36,27; 42,65</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-20,38; 92,0</t>
+          <t>-19,14; 105,38</t>
         </is>
       </c>
     </row>
@@ -1236,52 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,26</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-1,66%</t>
+          <t>-0,14%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>80,5%</t>
+          <t>45,52%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>7,83%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 14,61</t>
+          <t>-5,62; 11,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,93; 8,96</t>
+          <t>-12,3; 8,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 11,0</t>
+          <t>-10,89; 8,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 28,5</t>
+          <t>-2,18; 13,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 14,21</t>
+          <t>-8,99; 11,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 28,93</t>
+          <t>-9,49; 24,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-38,42; 42,95</t>
+          <t>-38,33; 44,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-32,55; 51,04</t>
+          <t>-35,06; 50,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 380,51</t>
+          <t>-22,67; 196,13</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-35,08; 93,38</t>
+          <t>-38,05; 78,17</t>
         </is>
       </c>
     </row>
@@ -1356,52 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>11,1%</t>
         </is>
       </c>
     </row>
@@ -1414,52 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 4,84</t>
+          <t>-3,67; 4,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 5,79</t>
+          <t>-3,04; 5,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 7,53</t>
+          <t>-1,61; 5,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 4,74</t>
+          <t>-4,38; 2,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 7,67</t>
+          <t>-1,43; 6,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 9,49</t>
+          <t>-6,66; 8,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 21,7</t>
+          <t>-9,71; 19,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 28,2</t>
+          <t>-5,67; 22,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 25,53</t>
+          <t>-19,5; 17,19</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 32,55</t>
+          <t>-5,38; 29,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
